--- a/data/trans_dic/IP19C06-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP19C06-Edad-trans_dic.xlsx
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,22 +796,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,53%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,31%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -821,27 +821,27 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,28%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,27%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,79%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>1,06%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,16</t>
+          <t>0; 1,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,33</t>
+          <t>0,0; 2,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,57</t>
+          <t>0; 1,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,68</t>
+          <t>0,0; 3,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>0; 1,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,2; 2,91</t>
+          <t>0,0; 3,08</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,39</t>
+          <t>0,0; 2,99</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,49; 2,99</t>
+          <t>0,37; 4,29</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,96</t>
+          <t>0; 0,59</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,3; 1,75</t>
+          <t>0,0; 1,95</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,05</t>
+          <t>0,0; 1,46</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,36; 1,76</t>
+          <t>0,35; 2,56</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,22 +936,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,31%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>0,33%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -961,27 +961,27 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>0,28%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,49%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,27%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>1,06%</t>
+          <t>0,81%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,12</t>
+          <t>0,0; 2,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,78</t>
+          <t>0,0; 2,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,0</t>
+          <t>0,0; 1,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,91</t>
+          <t>0,0; 1,68</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,21</t>
+          <t>0; 0,58</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,08</t>
+          <t>0,2; 2,91</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,99</t>
+          <t>0,0; 1,39</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,37; 4,29</t>
+          <t>0,49; 2,99</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,59</t>
+          <t>0,0; 0,96</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,95</t>
+          <t>0,3; 1,75</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,46</t>
+          <t>0,0; 1,05</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,35; 2,56</t>
+          <t>0,36; 1,76</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP19C06-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP19C06-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>1,98%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 5,96</t>
+          <t>0; 44,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>0; 77,15</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0; 56,93</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0; 20,75</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0; 26,42</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0; 30,57</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0; 77,15</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0; 15,69</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0; 18,74</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0; 26,42</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>0; 44,41</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
           <t>0; 9,49</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0; 11,83</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>0; 4,9</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>0; 5,3</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 19,0</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>0; 10,53</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 10,68</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>0; 2,86</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 9,55</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>0; 5,78</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 5,4</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -801,7 +801,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -821,17 +821,17 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,49%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -841,17 +841,17 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>0,51%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>1,06%</t>
+          <t>1,26%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,12</t>
+          <t>0; 1,55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,78</t>
+          <t>0,0; 4,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,0</t>
+          <t>0; 1,61</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,91</t>
+          <t>0,0; 5,72</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,21</t>
+          <t>0; 1,5</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,08</t>
+          <t>0,0; 3,83</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,99</t>
+          <t>0,0; 5,65</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,37; 4,29</t>
+          <t>0,0; 4,96</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,59</t>
+          <t>0; 0,76</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,95</t>
+          <t>0,0; 2,48</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,46</t>
+          <t>0,0; 2,58</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,35; 2,56</t>
+          <t>0,28; 3,75</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,22 +936,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,53%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,31%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -961,37 +961,37 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,28%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
           <t>0,27%</t>
         </is>
       </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>0,79%</t>
-        </is>
-      </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>0,92%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,16</t>
+          <t>0; 1,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,33</t>
+          <t>0; 1,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,57</t>
+          <t>0; 0,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,68</t>
+          <t>0; 1,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>0; 1,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,2; 2,91</t>
+          <t>0,0; 3,62</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,39</t>
+          <t>0; 0,89</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,49; 2,99</t>
+          <t>0,54; 5,05</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,96</t>
+          <t>0; 0,63</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,3; 1,75</t>
+          <t>0,0; 1,26</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,05</t>
+          <t>0; 0,45</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,36; 1,76</t>
+          <t>0,24; 2,29</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,22 +1076,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,19%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,41%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,37 +1101,37 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,38%</t>
+          <t>0,43%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,17%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>0,77%</t>
         </is>
       </c>
     </row>
@@ -1144,68 +1144,216 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>0,0; 2,36</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 3,63</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 3,12</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,81</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,79</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0,29; 3,8</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,35</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>0,35; 2,91</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,17</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>0,43; 2,77</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,61</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>0,19; 1,81</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0,34%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,61%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,19%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0,41%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0,91%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0,38%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1,45%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0,17%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0,76%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0,29%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0,89%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,1</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0,17; 1,61</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,14</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,46</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,37</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0,32; 2,11</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
           <t>0,0; 1,2</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>0,17; 1,78</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 0,95</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,42</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,37</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>0,32; 2,0</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,49</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>0,73; 2,62</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 0,62</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>0,34; 1,38</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 0,76</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>0,43; 1,51</t>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0,63; 2,77</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 0,66</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0,36; 1,34</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0,08; 0,76</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0,46; 1,53</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>

--- a/data/trans_dic/IP19C06-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP19C06-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -869,7 +869,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,1</t>
+          <t>0,0; 4,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,72</t>
+          <t>0,0; 5,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -889,17 +889,17 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,83</t>
+          <t>0,0; 4,05</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,65</t>
+          <t>0,0; 5,7</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,96</t>
+          <t>0,0; 5,49</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -909,17 +909,17 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,48</t>
+          <t>0,0; 2,79</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,58</t>
+          <t>0,0; 2,55</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,28; 3,75</t>
+          <t>0,28; 3,73</t>
         </is>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,62</t>
+          <t>0,0; 2,86</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,54; 5,05</t>
+          <t>0,55; 5,45</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,26</t>
+          <t>0,0; 1,36</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,24; 2,29</t>
+          <t>0,24; 2,31</t>
         </is>
       </c>
     </row>
@@ -1144,22 +1144,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,36</t>
+          <t>0,0; 2,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,63</t>
+          <t>0,0; 3,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,12</t>
+          <t>0,0; 3,08</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,81</t>
+          <t>0,0; 2,4</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,37 +1169,37 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,29; 3,8</t>
+          <t>0,29; 4,18</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,35</t>
+          <t>0,0; 2,38</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,35; 2,91</t>
+          <t>0,35; 3,22</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,17</t>
+          <t>0,0; 1,29</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,43; 2,77</t>
+          <t>0,39; 2,69</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,61</t>
+          <t>0,0; 1,64</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,81</t>
+          <t>0,18; 1,88</t>
         </is>
       </c>
     </row>
@@ -1284,22 +1284,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,1</t>
+          <t>0,0; 1,25</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,61</t>
+          <t>0,17; 1,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,14</t>
+          <t>0,0; 1,03</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,46</t>
+          <t>0,0; 1,44</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1309,37 +1309,37 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,32; 2,11</t>
+          <t>0,32; 2,04</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,2</t>
+          <t>0,0; 1,36</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,63; 2,77</t>
+          <t>0,74; 2,84</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,66</t>
+          <t>0,0; 0,56</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,36; 1,34</t>
+          <t>0,34; 1,53</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,76</t>
+          <t>0,0; 0,68</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,46; 1,53</t>
+          <t>0,46; 1,61</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP19C06-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP19C06-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -724,42 +724,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>0; 26,42</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0; 30,57</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0; 77,15</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0; 15,69</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>0; 44,41</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>0; 77,15</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>0; 56,93</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>0; 20,75</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>0; 26,42</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0; 30,57</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>0; 77,15</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>0; 15,69</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -801,37 +801,37 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>0,75%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1,13%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1,41%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>0,81%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>1,14%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>0,75%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>1,13%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>1,35%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>1,38%</t>
         </is>
       </c>
     </row>
@@ -864,42 +864,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>0; 1,5</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 4,4</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 5,62</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 4,76</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
           <t>0; 1,55</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 4,37</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 4,11</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>0; 1,61</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 5,71</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>0; 1,5</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 4,05</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 5,7</t>
-        </is>
-      </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,49</t>
+          <t>0,0; 7,68</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -909,17 +909,17 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,79</t>
+          <t>0,0; 2,74</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,55</t>
+          <t>0,0; 2,57</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,28; 3,73</t>
+          <t>0,28; 5,0</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -961,7 +961,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,92%</t>
+          <t>0,9%</t>
         </is>
       </c>
     </row>
@@ -1004,44 +1004,44 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>0; 1,29</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,56</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,89</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0,55; 5,01</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>0; 1,21</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="H9" s="2" t="inlineStr">
         <is>
           <t>0; 1,0</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="I9" s="2" t="inlineStr">
         <is>
           <t>0; 0,92</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
+      <c r="J9" s="2" t="inlineStr">
         <is>
           <t>0; 1,03</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>0; 1,29</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 2,86</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,89</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>0,55; 5,45</t>
-        </is>
-      </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
           <t>0; 0,63</t>
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,24; 2,31</t>
+          <t>0,27; 2,25</t>
         </is>
       </c>
     </row>
@@ -1076,42 +1076,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1,32%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0,43%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>1,14%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>0,7%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>1,05%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>0,52%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,46%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>1,32%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>0,43%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1,12%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>0,83%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,5</t>
+          <t>0; 0,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,15</t>
+          <t>0,29; 3,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,08</t>
+          <t>0,0; 2,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,4</t>
+          <t>0,36; 2,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,79</t>
+          <t>0,0; 2,61</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,29; 4,18</t>
+          <t>0,0; 3,82</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,38</t>
+          <t>0,0; 2,63</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,35; 3,22</t>
+          <t>0,0; 3,21</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,29</t>
+          <t>0,0; 1,35</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,39; 2,69</t>
+          <t>0,44; 2,58</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,64</t>
+          <t>0,0; 1,65</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,18; 1,88</t>
+          <t>0,3; 2,19</t>
         </is>
       </c>
     </row>
@@ -1216,42 +1216,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,91%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,38%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1,47%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>0,34%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>0,61%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>0,19%</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,41%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>0,91%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>0,38%</t>
-        </is>
-      </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>0,49%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>0,93%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,25</t>
+          <t>0; 0,37</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,67</t>
+          <t>0,32; 2,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,03</t>
+          <t>0,0; 1,49</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,44</t>
+          <t>0,73; 2,66</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>0,0; 1,2</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,32; 2,04</t>
+          <t>0,17; 1,78</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,36</t>
+          <t>0,0; 0,95</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,74; 2,84</t>
+          <t>0,0; 1,69</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,56</t>
+          <t>0,0; 0,62</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,34; 1,53</t>
+          <t>0,34; 1,38</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,68</t>
+          <t>0,0; 0,76</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,46; 1,61</t>
+          <t>0,44; 1,59</t>
         </is>
       </c>
     </row>
